--- a/Equilibrium_Excel.xlsx
+++ b/Equilibrium_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\UnityProjects\TowerDefense_TP_2022\ExerciceTD_2022_GS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9F88FAE-9BC0-410A-8337-8C9EFE771F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE06D680-C403-4E23-8F34-F4E0BAF352BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{9EE1298D-E911-4D77-A2DC-848FF959F092}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EE1298D-E911-4D77-A2DC-848FF959F092}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave" sheetId="3" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DC482E-9098-47BD-8063-58A71EF4FB3C}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F84BFC4-7D25-48B8-85E0-BC680FCDC642}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
